--- a/trunk/serveur/PokerServer_début/cartes.xlsx
+++ b/trunk/serveur/PokerServer_début/cartes.xlsx
@@ -33,15 +33,9 @@
     <t>AS de pique</t>
   </si>
   <si>
-    <t>AS de carreaux</t>
-  </si>
-  <si>
     <t>AS de trefle</t>
   </si>
   <si>
-    <t>As de cœur</t>
-  </si>
-  <si>
     <t>2 de pique</t>
   </si>
   <si>
@@ -55,6 +49,12 @@
   </si>
   <si>
     <t>etc</t>
+  </si>
+  <si>
+    <t>AS de cœur</t>
+  </si>
+  <si>
+    <t>As de carreaux</t>
   </si>
 </sst>
 </file>
@@ -396,7 +396,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -440,7 +440,7 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -454,7 +454,7 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -468,7 +468,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -482,7 +482,7 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -510,7 +510,7 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -524,7 +524,7 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -538,7 +538,7 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -664,10 +664,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C22">
         <v>21</v>

--- a/trunk/serveur/PokerServer_début/cartes.xlsx
+++ b/trunk/serveur/PokerServer_début/cartes.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="A1:D53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="C2" sqref="C2:C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -423,7 +423,7 @@
         <v>14</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D2" t="s">
         <v>4</v>
@@ -437,7 +437,7 @@
         <v>14</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="s">
         <v>11</v>
@@ -451,7 +451,7 @@
         <v>14</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4" t="s">
         <v>5</v>
@@ -465,7 +465,7 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D5" t="s">
         <v>12</v>
@@ -479,7 +479,7 @@
         <v>2</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
@@ -493,7 +493,7 @@
         <v>2</v>
       </c>
       <c r="C7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -507,7 +507,7 @@
         <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D8" t="s">
         <v>8</v>
@@ -521,7 +521,7 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
@@ -535,7 +535,7 @@
         <v>3</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D10" t="s">
         <v>10</v>
@@ -549,7 +549,7 @@
         <v>3</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -571,7 +571,7 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -582,7 +582,7 @@
         <v>4</v>
       </c>
       <c r="C14">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -593,7 +593,7 @@
         <v>4</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,7 +604,7 @@
         <v>4</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -615,7 +615,7 @@
         <v>4</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -626,7 +626,7 @@
         <v>5</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -637,7 +637,7 @@
         <v>5</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -648,7 +648,7 @@
         <v>5</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -659,7 +659,7 @@
         <v>5</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -670,162 +670,162 @@
         <v>10</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C23">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C24">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C25">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C26">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C27">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C28">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C29">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C30">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C31">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C32">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C33">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="34" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C34">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C35">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C36">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C37">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C38">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C39">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C40">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C41">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C42">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C43">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C44">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C45">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C46">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C47">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="48" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C48">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C49">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C50">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="51" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C51">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C52">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C53">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
